--- a/Evaluering af sprints/Burn down chart - sprint 6.xlsx
+++ b/Evaluering af sprints/Burn down chart - sprint 6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlotte\Documents\Bachelor\Evaluering af sprints\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlotte\Documents\Automatic-Sonography\Evaluering af sprints\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t>Latex</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>Nedfald pr. dag</t>
+  </si>
+  <si>
+    <t>Sprint 6</t>
   </si>
 </sst>
 </file>
@@ -240,7 +243,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,8 +259,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,6 +283,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,15 +412,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -429,6 +441,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,7 +544,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Aktuelle</c:v>
+            <c:v>Idelle</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -554,7 +573,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ark1'!$G$2:$G$16</c:f>
+              <c:f>'Ark1'!$G$3:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -608,7 +627,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ark1'!$H$2:$H$16</c:f>
+              <c:f>'Ark1'!$H$3:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -671,7 +690,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Ideele</c:v>
+            <c:v>Aktuelle</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -700,7 +719,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ark1'!$G$2:$G$16</c:f>
+              <c:f>'Ark1'!$G$3:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -754,7 +773,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ark1'!$I$2:$I$16</c:f>
+              <c:f>'Ark1'!$I$3:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1133,7 +1152,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1704,15 +1723,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>211928</xdr:colOff>
+      <xdr:colOff>307178</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>121443</xdr:rowOff>
+      <xdr:rowOff>61911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>392905</xdr:colOff>
+      <xdr:colOff>488155</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:rowOff>11906</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2039,10 +2058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X130"/>
+  <dimension ref="A1:X132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2059,1319 +2078,1345 @@
     <col min="25" max="25" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:15" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="26"/>
+      <c r="B1" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="15"/>
-      <c r="F2" s="8">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="13"/>
+      <c r="F3" s="6">
         <v>42681</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G3" s="5">
         <v>1</v>
       </c>
-      <c r="H2" s="23">
-        <f>C67-$H$18</f>
+      <c r="H3" s="21">
+        <f>C68-$H$19</f>
         <v>254.33333333333334</v>
       </c>
-      <c r="I2" s="23">
-        <f>C67-SUMIF($D$2:$D$66, F2, $C$2:$C$66)</f>
+      <c r="I3" s="21">
+        <f>C68-SUMIF($D$3:$D$67, F3, $C$3:$C$67)</f>
         <v>248.5</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="7" t="s">
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D4" s="15">
         <v>42682</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F4" s="6">
         <v>42682</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G4" s="5">
         <v>2</v>
       </c>
-      <c r="H3" s="23">
-        <f>H2-$H$18</f>
+      <c r="H4" s="21">
+        <f>H3-$H$19</f>
         <v>236.16666666666669</v>
       </c>
-      <c r="I3" s="23">
-        <f>I2-SUMIF($D$2:$D$66, F3, $C$2:$C$66)</f>
+      <c r="I4" s="21">
+        <f>I3-SUMIF($D$3:$D$67, F4, $C$3:$C$67)</f>
         <v>233.5</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="7" t="s">
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C5" s="5">
         <v>8</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D5" s="15">
         <v>42683</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F5" s="6">
         <v>42683</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G5" s="5">
         <v>3</v>
       </c>
-      <c r="H4" s="23">
-        <f>H3-$H$18</f>
+      <c r="H5" s="21">
+        <f>H4-$H$19</f>
         <v>218.00000000000003</v>
       </c>
-      <c r="I4" s="23">
-        <f>I3-SUMIF($D$2:$D$66, F4, $C$2:$C$66)</f>
+      <c r="I5" s="21">
+        <f>I4-SUMIF($D$3:$D$67, F5, $C$3:$C$67)</f>
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="7" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C6" s="5">
         <v>8</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D6" s="15">
         <v>42683</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F6" s="6">
         <v>42684</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G6" s="5">
         <v>4</v>
       </c>
-      <c r="H5" s="23">
-        <f>H4-$H$18</f>
+      <c r="H6" s="21">
+        <f>H5-$H$19</f>
         <v>199.83333333333337</v>
       </c>
-      <c r="I5" s="23">
-        <f>I4-SUMIF($D$2:$D$69, F5, $C$2:$C$69)</f>
+      <c r="I6" s="21">
+        <f>I5-SUMIF($D$3:$D$70, F6, $C$3:$C$70)</f>
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="15"/>
-      <c r="F6" s="8">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="13"/>
+      <c r="F7" s="6">
         <v>42685</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G7" s="5">
         <v>5</v>
       </c>
-      <c r="H6" s="23">
-        <f>H5-$H$18</f>
+      <c r="H7" s="21">
+        <f>H6-$H$19</f>
         <v>181.66666666666671</v>
       </c>
-      <c r="I6" s="23">
-        <f>I5-SUMIF($D$2:$D$66, F6, $C$2:$C$66)</f>
+      <c r="I7" s="21">
+        <f>I6-SUMIF($D$3:$D$67, F7, $C$3:$C$67)</f>
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="7" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C8" s="5">
         <v>3</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D8" s="15">
         <v>42695</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F8" s="6">
         <v>42688</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G8" s="5">
         <v>6</v>
       </c>
-      <c r="H7" s="23">
-        <f>H6-$H$18</f>
+      <c r="H8" s="21">
+        <f>H7-$H$19</f>
         <v>163.50000000000006</v>
       </c>
-      <c r="I7" s="23">
-        <f>I6-SUMIF($D$2:$D$66, F7, $C$2:$C$66)</f>
+      <c r="I8" s="21">
+        <f>I7-SUMIF($D$3:$D$67, F8, $C$3:$C$67)</f>
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="7" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C9" s="5">
         <v>4</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D9" s="15">
         <v>42685</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F9" s="6">
         <v>42689</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G9" s="5">
         <v>7</v>
       </c>
-      <c r="H8" s="23">
-        <f>H7-$H$18</f>
+      <c r="H9" s="21">
+        <f>H8-$H$19</f>
         <v>145.3333333333334</v>
       </c>
-      <c r="I8" s="23">
-        <f>I7-SUMIF($D$2:$D$69, F8, $C$2:$C$69)</f>
+      <c r="I9" s="21">
+        <f>I8-SUMIF($D$3:$D$70, F9, $C$3:$C$70)</f>
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="7" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C10" s="5">
         <v>1</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D10" s="15">
         <v>42681</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F10" s="6">
         <v>42690</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G10" s="5">
         <v>8</v>
       </c>
-      <c r="H9" s="23">
-        <f>H8-$H$18</f>
+      <c r="H10" s="21">
+        <f>H9-$H$19</f>
         <v>127.16666666666673</v>
       </c>
-      <c r="I9" s="23">
-        <f>I8-SUMIF($D$2:$D$66, F9, $C$2:$C$66)</f>
+      <c r="I10" s="21">
+        <f>I9-SUMIF($D$3:$D$67, F10, $C$3:$C$67)</f>
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="7" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C11" s="5">
         <v>2</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D11" s="15">
         <v>42685</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F11" s="6">
         <v>42691</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G11" s="5">
         <v>9</v>
       </c>
-      <c r="H10" s="23">
-        <f>H9-$H$18</f>
+      <c r="H11" s="21">
+        <f>H10-$H$19</f>
         <v>109.00000000000006</v>
       </c>
-      <c r="I10" s="23">
-        <f>I9-SUMIF($D$2:$D$66, F10, $C$2:$C$66)</f>
+      <c r="I11" s="21">
+        <f>I10-SUMIF($D$3:$D$67, F11, $C$3:$C$67)</f>
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="7" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C12" s="5">
         <v>2</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="F11" s="8">
+      <c r="D12" s="15"/>
+      <c r="F12" s="6">
         <v>42692</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G12" s="5">
         <v>10</v>
       </c>
-      <c r="H11" s="23">
-        <f>H10-$H$18</f>
+      <c r="H12" s="21">
+        <f>H11-$H$19</f>
         <v>90.833333333333385</v>
       </c>
-      <c r="I11" s="23">
-        <f>I10-SUMIF($D$2:$D$69, F11, $C$2:$C$69)</f>
+      <c r="I12" s="21">
+        <f>I11-SUMIF($D$3:$D$70, F12, $C$3:$C$70)</f>
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="7" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C13" s="5">
         <v>2</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D13" s="15">
         <v>42699</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F13" s="6">
         <v>42695</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G13" s="5">
         <v>11</v>
       </c>
-      <c r="H12" s="23">
-        <f>H11-$H$18</f>
+      <c r="H13" s="21">
+        <f>H12-$H$19</f>
         <v>72.666666666666714</v>
       </c>
-      <c r="I12" s="23">
-        <f>I11-SUMIF($D$2:$D$66, F12, $C$2:$C$66)</f>
+      <c r="I13" s="21">
+        <f>I12-SUMIF($D$3:$D$67, F13, $C$3:$C$67)</f>
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="7" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C14" s="7">
         <v>6</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="F13" s="8">
+      <c r="D14" s="16"/>
+      <c r="F14" s="6">
         <v>42696</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G14" s="5">
         <v>12</v>
       </c>
-      <c r="H13" s="23">
-        <f>H12-$H$18</f>
+      <c r="H14" s="21">
+        <f>H13-$H$19</f>
         <v>54.500000000000043</v>
       </c>
-      <c r="I13" s="23">
-        <f>I12-SUMIF($D$2:$D$66, F13, $C$2:$C$66)</f>
+      <c r="I14" s="21">
+        <f>I13-SUMIF($D$3:$D$67, F14, $C$3:$C$67)</f>
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="7" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C15" s="7">
         <v>1</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D15" s="15">
         <v>42682</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F15" s="6">
         <v>42697</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G15" s="5">
         <v>13</v>
       </c>
-      <c r="H14" s="23">
-        <f>H13-$H$18</f>
+      <c r="H15" s="21">
+        <f>H14-$H$19</f>
         <v>36.333333333333371</v>
       </c>
-      <c r="I14" s="23">
-        <f>I13-SUMIF($D$2:$D$69, F14, $C$2:$C$69)</f>
+      <c r="I15" s="21">
+        <f>I14-SUMIF($D$3:$D$70, F15, $C$3:$C$70)</f>
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="7" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C16" s="7">
         <v>0.5</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D16" s="15">
         <v>42683</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F16" s="6">
         <v>42698</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G16" s="5">
         <v>14</v>
       </c>
-      <c r="H15" s="23">
-        <f>H14-$H$18</f>
+      <c r="H16" s="21">
+        <f>H15-$H$19</f>
         <v>18.166666666666703</v>
       </c>
-      <c r="I15" s="23">
-        <f>I14-SUMIF($D$2:$D$66, F15, $C$2:$C$66)</f>
+      <c r="I16" s="21">
+        <f>I15-SUMIF($D$3:$D$67, F16, $C$3:$C$67)</f>
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="15"/>
-      <c r="F16" s="8">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="13"/>
+      <c r="F17" s="6">
         <v>42699</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G17" s="5">
         <v>15</v>
       </c>
-      <c r="H16" s="23">
-        <f>H15-$H$18</f>
+      <c r="H17" s="21">
+        <f>H16-$H$19</f>
         <v>3.5527136788005009E-14</v>
       </c>
-      <c r="I16" s="23">
-        <f>I15-SUMIF($D$2:$D$66, F16, $C$2:$C$66)</f>
+      <c r="I17" s="21">
+        <f>I16-SUMIF($D$3:$D$67, F17, $C$3:$C$67)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="7" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C18" s="5">
         <v>6</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D18" s="15">
         <v>42684</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="7" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C19" s="5">
         <v>2</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D19" s="15">
         <v>42681</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H18" s="2">
-        <f>C67/G16</f>
+      <c r="H19" s="2">
+        <f>C68/G17</f>
         <v>18.166666666666668</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="7" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C20" s="5">
         <v>1</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D20" s="15">
         <v>42681</v>
       </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="7" t="s">
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C21" s="5">
         <v>35</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D21" s="15">
         <v>42690</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="7" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C22" s="5">
         <v>6</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D22" s="15">
         <v>42690</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="7" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C23" s="5">
         <v>2</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D23" s="15">
         <v>42682</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="7" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C24" s="5">
         <v>4</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D24" s="15">
         <v>42684</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C26" s="5">
         <v>4</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D26" s="15">
         <v>42683</v>
       </c>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="7" t="s">
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C27" s="5">
         <v>2</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D27" s="15">
         <v>42688</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="7" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C28" s="5">
         <v>12</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D28" s="15">
         <v>42691</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="7" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C29" s="5">
         <v>8</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D29" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="7" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C30" s="5">
         <v>12</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D30" s="15">
         <v>42688</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="7" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C31" s="5">
         <v>20</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D31" s="15">
         <v>42697</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="7" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C32" s="5">
         <v>8</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D32" s="15">
         <v>42695</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="7" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C33" s="7">
         <v>3</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D33" s="15">
         <v>42681</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="15"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="13"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C35" s="7">
         <v>2</v>
       </c>
-      <c r="D34" s="18"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="7" t="s">
+      <c r="D35" s="16"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C36" s="7">
         <v>2</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D36" s="15">
         <v>42696</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="7" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C37" s="7">
         <v>2</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D37" s="15">
         <v>42696</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="7" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C38" s="7">
         <v>2</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D38" s="15">
         <v>42696</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="15"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="13"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C40" s="5">
         <v>11</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D40" s="15">
         <v>42681</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="7" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C41" s="5">
         <v>16</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D41" s="15">
         <v>42698</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="7" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C42" s="5">
         <v>3</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D42" s="15">
         <v>42698</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="7" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C43" s="7">
         <v>5</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D43" s="15">
         <v>42691</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="7" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C44" s="7">
         <v>1</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D44" s="15">
         <v>42682</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="B44" s="7" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C45" s="7">
         <v>4</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D45" s="15">
         <v>42685</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="B45" s="7" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C46" s="7">
         <v>4</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D46" s="15">
         <v>42688</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="15"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="16"/>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="13"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C48" s="7">
         <v>2</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D48" s="15">
         <v>42688</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
-      <c r="B48" s="7" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C49" s="7">
         <v>1</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D49" s="15">
         <v>42691</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="16"/>
-      <c r="B49" s="7" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C50" s="7">
         <v>2</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D50" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
-      <c r="B50" s="7" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="B51" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C51" s="7">
         <v>2</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D51" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
-      <c r="B51" s="7" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C52" s="7">
         <v>3</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D52" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="16"/>
-      <c r="B52" s="7" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C53" s="7">
         <v>1</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="D53" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="16"/>
-      <c r="B53" s="7" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="14"/>
+      <c r="B54" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C54" s="7">
         <v>1</v>
       </c>
-      <c r="D53" s="17">
+      <c r="D54" s="15">
         <v>42690</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="15"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="16"/>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="13"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
+      <c r="B56" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C56" s="5">
         <v>4</v>
       </c>
-      <c r="D55" s="17">
+      <c r="D56" s="15">
         <v>42682</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
-      <c r="B56" s="7" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="14"/>
+      <c r="B57" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C57" s="5">
         <v>1</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D57" s="15">
         <v>42681</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="15"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="16"/>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="13"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="14"/>
+      <c r="B59" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C59" s="5">
         <v>6</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D59" s="15">
         <v>42682</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
-      <c r="B59" s="7" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="14"/>
+      <c r="B60" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C60" s="5">
         <v>6</v>
       </c>
-      <c r="D59" s="17">
+      <c r="D60" s="15">
         <v>42698</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="16" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7">
+      <c r="B61" s="5"/>
+      <c r="C61" s="5">
         <v>1</v>
       </c>
-      <c r="D60" s="17">
+      <c r="D61" s="15">
         <v>42689</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="16" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7">
+      <c r="B62" s="5"/>
+      <c r="C62" s="5">
         <v>6</v>
       </c>
-      <c r="D61" s="17">
+      <c r="D62" s="15">
         <v>42690</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="16" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="7">
+      <c r="B63" s="8"/>
+      <c r="C63" s="5">
         <v>4</v>
       </c>
-      <c r="D62" s="17">
+      <c r="D63" s="15">
         <v>42697</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="16" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B63" s="7"/>
-      <c r="C63" s="9">
+      <c r="B64" s="5"/>
+      <c r="C64" s="7">
         <v>5</v>
       </c>
-      <c r="D63" s="17">
+      <c r="D64" s="15">
         <v>42681</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="16" t="s">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B64" s="7"/>
-      <c r="C64" s="9">
+      <c r="B65" s="5"/>
+      <c r="C65" s="7">
         <v>8</v>
       </c>
-      <c r="D64" s="17">
+      <c r="D65" s="15">
         <v>42699</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A65" s="16" t="s">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B65" s="7"/>
-      <c r="C65" s="9">
+      <c r="B66" s="5"/>
+      <c r="C66" s="7">
         <v>1</v>
       </c>
-      <c r="D65" s="17">
+      <c r="D66" s="15">
         <v>42684</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A66" s="16" t="s">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7">
+      <c r="B67" s="5"/>
+      <c r="C67" s="5">
         <v>3</v>
       </c>
-      <c r="D66" s="17">
+      <c r="D67" s="15">
         <v>42692</v>
       </c>
     </row>
-    <row r="67" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="19"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="21">
-        <f>SUM(C2:C66)</f>
+    <row r="68" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="17"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="19">
+        <f>SUM(C3:C67)</f>
         <v>272.5</v>
       </c>
-      <c r="D67" s="22"/>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="T70" s="25"/>
-      <c r="U70" s="25"/>
-      <c r="V70" s="25"/>
-      <c r="W70" s="25"/>
-      <c r="X70" s="25"/>
+      <c r="D68" s="20"/>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="T71" s="24"/>
-      <c r="U71" s="24"/>
-      <c r="V71" s="24"/>
-      <c r="W71" s="24"/>
-      <c r="X71" s="24"/>
-    </row>
-    <row r="72" spans="1:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T72" s="24"/>
-      <c r="U72" s="24"/>
-      <c r="V72" s="24"/>
-      <c r="W72" s="24"/>
-      <c r="X72" s="24"/>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="T73" s="24"/>
-      <c r="U73" s="24"/>
-      <c r="V73" s="24"/>
-      <c r="W73" s="24"/>
-      <c r="X73" s="24"/>
+      <c r="T71" s="23"/>
+      <c r="U71" s="23"/>
+      <c r="V71" s="23"/>
+      <c r="W71" s="23"/>
+      <c r="X71" s="23"/>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="T72" s="22"/>
+      <c r="U72" s="22"/>
+      <c r="V72" s="22"/>
+      <c r="W72" s="22"/>
+      <c r="X72" s="22"/>
+    </row>
+    <row r="73" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T73" s="22"/>
+      <c r="U73" s="22"/>
+      <c r="V73" s="22"/>
+      <c r="W73" s="22"/>
+      <c r="X73" s="22"/>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="T74" s="24"/>
-      <c r="U74" s="24"/>
-      <c r="V74" s="24"/>
-      <c r="W74" s="24"/>
-      <c r="X74" s="24"/>
+      <c r="T74" s="22"/>
+      <c r="U74" s="22"/>
+      <c r="V74" s="22"/>
+      <c r="W74" s="22"/>
+      <c r="X74" s="22"/>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="T75" s="24"/>
-      <c r="U75" s="24"/>
-      <c r="V75" s="24"/>
-      <c r="W75" s="24"/>
-      <c r="X75" s="24"/>
+      <c r="T75" s="22"/>
+      <c r="U75" s="22"/>
+      <c r="V75" s="22"/>
+      <c r="W75" s="22"/>
+      <c r="X75" s="22"/>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="T76" s="24"/>
-      <c r="U76" s="24"/>
-      <c r="V76" s="24"/>
-      <c r="W76" s="24"/>
-      <c r="X76" s="24"/>
+      <c r="T76" s="22"/>
+      <c r="U76" s="22"/>
+      <c r="V76" s="22"/>
+      <c r="W76" s="22"/>
+      <c r="X76" s="22"/>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="T77" s="24"/>
-      <c r="U77" s="24"/>
-      <c r="V77" s="24"/>
-      <c r="W77" s="24"/>
-      <c r="X77" s="24"/>
+      <c r="T77" s="22"/>
+      <c r="U77" s="22"/>
+      <c r="V77" s="22"/>
+      <c r="W77" s="22"/>
+      <c r="X77" s="22"/>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="T78" s="24"/>
-      <c r="U78" s="24"/>
-      <c r="V78" s="24"/>
-      <c r="W78" s="24"/>
-      <c r="X78" s="24"/>
+      <c r="T78" s="22"/>
+      <c r="U78" s="22"/>
+      <c r="V78" s="22"/>
+      <c r="W78" s="22"/>
+      <c r="X78" s="22"/>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="T79" s="24"/>
-      <c r="U79" s="24"/>
-      <c r="V79" s="24"/>
-      <c r="W79" s="24"/>
-      <c r="X79" s="24"/>
+      <c r="T79" s="22"/>
+      <c r="U79" s="22"/>
+      <c r="V79" s="22"/>
+      <c r="W79" s="22"/>
+      <c r="X79" s="22"/>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="T80" s="24"/>
-      <c r="U80" s="24"/>
-      <c r="V80" s="24"/>
-      <c r="W80" s="24"/>
-      <c r="X80" s="24"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="T80" s="22"/>
+      <c r="U80" s="22"/>
+      <c r="V80" s="22"/>
+      <c r="W80" s="22"/>
+      <c r="X80" s="22"/>
     </row>
     <row r="81" spans="8:24" x14ac:dyDescent="0.25">
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="T81" s="24"/>
-      <c r="U81" s="24"/>
-      <c r="V81" s="24"/>
-      <c r="W81" s="24"/>
-      <c r="X81" s="24"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="T81" s="22"/>
+      <c r="U81" s="22"/>
+      <c r="V81" s="22"/>
+      <c r="W81" s="22"/>
+      <c r="X81" s="22"/>
     </row>
     <row r="82" spans="8:24" x14ac:dyDescent="0.25">
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="T82" s="24"/>
-      <c r="U82" s="24"/>
-      <c r="V82" s="24"/>
-      <c r="W82" s="24"/>
-      <c r="X82" s="24"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="T82" s="22"/>
+      <c r="U82" s="22"/>
+      <c r="V82" s="22"/>
+      <c r="W82" s="22"/>
+      <c r="X82" s="22"/>
     </row>
     <row r="83" spans="8:24" x14ac:dyDescent="0.25">
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="T83" s="24"/>
-      <c r="U83" s="24"/>
-      <c r="V83" s="24"/>
-      <c r="W83" s="24"/>
-      <c r="X83" s="24"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="T83" s="22"/>
+      <c r="U83" s="22"/>
+      <c r="V83" s="22"/>
+      <c r="W83" s="22"/>
+      <c r="X83" s="22"/>
     </row>
     <row r="84" spans="8:24" x14ac:dyDescent="0.25">
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
-      <c r="T84" s="24"/>
-      <c r="U84" s="24"/>
-      <c r="V84" s="24"/>
-      <c r="W84" s="24"/>
-      <c r="X84" s="24"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="T84" s="22"/>
+      <c r="U84" s="22"/>
+      <c r="V84" s="22"/>
+      <c r="W84" s="22"/>
+      <c r="X84" s="22"/>
     </row>
     <row r="85" spans="8:24" x14ac:dyDescent="0.25">
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-      <c r="T85" s="24"/>
-      <c r="U85" s="24"/>
-      <c r="V85" s="24"/>
-      <c r="W85" s="24"/>
-      <c r="X85" s="24"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="T85" s="22"/>
+      <c r="U85" s="22"/>
+      <c r="V85" s="22"/>
+      <c r="W85" s="22"/>
+      <c r="X85" s="22"/>
     </row>
     <row r="86" spans="8:24" x14ac:dyDescent="0.25">
-      <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
-      <c r="T86" s="24"/>
-      <c r="U86" s="24"/>
-      <c r="V86" s="24"/>
-      <c r="W86" s="24"/>
-      <c r="X86" s="24"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="T86" s="22"/>
+      <c r="U86" s="22"/>
+      <c r="V86" s="22"/>
+      <c r="W86" s="22"/>
+      <c r="X86" s="22"/>
     </row>
     <row r="87" spans="8:24" x14ac:dyDescent="0.25">
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-      <c r="T87" s="24"/>
-      <c r="U87" s="24"/>
-      <c r="V87" s="24"/>
-      <c r="W87" s="24"/>
-      <c r="X87" s="24"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="T87" s="22"/>
+      <c r="U87" s="22"/>
+      <c r="V87" s="22"/>
+      <c r="W87" s="22"/>
+      <c r="X87" s="22"/>
     </row>
     <row r="88" spans="8:24" x14ac:dyDescent="0.25">
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
-      <c r="T88" s="24"/>
-      <c r="U88" s="24"/>
-      <c r="V88" s="24"/>
-      <c r="W88" s="24"/>
-      <c r="X88" s="24"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="T88" s="22"/>
+      <c r="U88" s="22"/>
+      <c r="V88" s="22"/>
+      <c r="W88" s="22"/>
+      <c r="X88" s="22"/>
     </row>
     <row r="89" spans="8:24" x14ac:dyDescent="0.25">
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-      <c r="T89" s="24"/>
-      <c r="U89" s="24"/>
-      <c r="V89" s="24"/>
-      <c r="W89" s="24"/>
-      <c r="X89" s="24"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="T89" s="22"/>
+      <c r="U89" s="22"/>
+      <c r="V89" s="22"/>
+      <c r="W89" s="22"/>
+      <c r="X89" s="22"/>
     </row>
     <row r="90" spans="8:24" x14ac:dyDescent="0.25">
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="T90" s="4"/>
-      <c r="U90" s="4"/>
-      <c r="V90" s="4"/>
-      <c r="W90" s="4"/>
-      <c r="X90" s="4"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="T90" s="22"/>
+      <c r="U90" s="22"/>
+      <c r="V90" s="22"/>
+      <c r="W90" s="22"/>
+      <c r="X90" s="22"/>
     </row>
     <row r="91" spans="8:24" x14ac:dyDescent="0.25">
-      <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="T91" s="3"/>
+      <c r="U91" s="3"/>
+      <c r="V91" s="3"/>
+      <c r="W91" s="3"/>
+      <c r="X91" s="3"/>
     </row>
     <row r="92" spans="8:24" x14ac:dyDescent="0.25">
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
     </row>
     <row r="93" spans="8:24" x14ac:dyDescent="0.25">
-      <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
     </row>
     <row r="94" spans="8:24" x14ac:dyDescent="0.25">
-      <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
     </row>
     <row r="95" spans="8:24" x14ac:dyDescent="0.25">
-      <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
     </row>
     <row r="96" spans="8:24" x14ac:dyDescent="0.25">
-      <c r="H96" s="4"/>
-      <c r="I96" s="4"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
     </row>
     <row r="97" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H97" s="4"/>
-      <c r="I97" s="4"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
     </row>
     <row r="98" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
     </row>
     <row r="99" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
     </row>
     <row r="100" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H100" s="4"/>
-      <c r="I100" s="4"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
     </row>
     <row r="101" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H101" s="4"/>
-      <c r="I101" s="4"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
     </row>
     <row r="102" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H102" s="4"/>
-      <c r="I102" s="4"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
     </row>
     <row r="103" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H103" s="4"/>
-      <c r="I103" s="4"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
     </row>
     <row r="104" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H104" s="4"/>
-      <c r="I104" s="4"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
     </row>
     <row r="105" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H105" s="4"/>
-      <c r="I105" s="4"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
     </row>
     <row r="106" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H106" s="4"/>
-      <c r="I106" s="4"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
     </row>
     <row r="107" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H107" s="4"/>
-      <c r="I107" s="4"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
     </row>
     <row r="108" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H108" s="4"/>
-      <c r="I108" s="4"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
     </row>
     <row r="109" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H109" s="4"/>
-      <c r="I109" s="4"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
     </row>
     <row r="110" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H110" s="4"/>
-      <c r="I110" s="4"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
     </row>
     <row r="111" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H111" s="4"/>
-      <c r="I111" s="4"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
     </row>
     <row r="112" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H112" s="4"/>
-      <c r="I112" s="4"/>
-    </row>
-    <row r="113" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H113" s="4"/>
-      <c r="I113" s="4"/>
-    </row>
-    <row r="114" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H114" s="4"/>
-      <c r="I114" s="4"/>
-    </row>
-    <row r="115" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H115" s="4"/>
-      <c r="I115" s="4"/>
-    </row>
-    <row r="116" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H116" s="4"/>
-      <c r="I116" s="4"/>
-    </row>
-    <row r="117" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H117" s="4"/>
-      <c r="I117" s="4"/>
-    </row>
-    <row r="118" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H118" s="4"/>
-      <c r="I118" s="4"/>
-    </row>
-    <row r="119" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H119" s="4"/>
-      <c r="I119" s="4"/>
-    </row>
-    <row r="120" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H120" s="4"/>
-      <c r="I120" s="4"/>
-    </row>
-    <row r="121" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H121" s="4"/>
-      <c r="I121" s="4"/>
-    </row>
-    <row r="127" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H127" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+    </row>
+    <row r="113" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+    </row>
+    <row r="114" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+    </row>
+    <row r="115" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
+    </row>
+    <row r="116" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+    </row>
+    <row r="117" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+    </row>
+    <row r="118" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+    </row>
+    <row r="119" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="H119" s="3"/>
+      <c r="I119" s="3"/>
+    </row>
+    <row r="120" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="H120" s="3"/>
+      <c r="I120" s="3"/>
+    </row>
+    <row r="121" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+    </row>
+    <row r="122" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
+    </row>
+    <row r="127" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
       <c r="I127" s="3"/>
     </row>
-    <row r="130" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H130" s="3" t="s">
-        <v>35</v>
-      </c>
+    <row r="128" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3"/>
+    </row>
+    <row r="129" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G129" s="3"/>
+      <c r="H129" s="3"/>
+      <c r="I129" s="3"/>
+    </row>
+    <row r="130" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
       <c r="I130" s="3"/>
+    </row>
+    <row r="131" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+    </row>
+    <row r="132" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G132" s="3"/>
+      <c r="H132" s="3"/>
+      <c r="I132" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J2:O3"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Evaluering af sprints/Burn down chart - sprint 6.xlsx
+++ b/Evaluering af sprints/Burn down chart - sprint 6.xlsx
@@ -444,10 +444,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,7 +544,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Idelle</c:v>
+            <c:v>Ideelle</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -2060,7 +2060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
@@ -2079,12 +2079,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="26"/>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="25"/>
+      <c r="B1" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
@@ -2154,7 +2154,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="21">
-        <f>H3-$H$19</f>
+        <f t="shared" ref="H4:H17" si="0">H3-$H$19</f>
         <v>236.16666666666669</v>
       </c>
       <c r="I4" s="21">
@@ -2186,7 +2186,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="21">
-        <f>H4-$H$19</f>
+        <f t="shared" si="0"/>
         <v>218.00000000000003</v>
       </c>
       <c r="I5" s="21">
@@ -2212,7 +2212,7 @@
         <v>4</v>
       </c>
       <c r="H6" s="21">
-        <f>H5-$H$19</f>
+        <f t="shared" si="0"/>
         <v>199.83333333333337</v>
       </c>
       <c r="I6" s="21">
@@ -2234,7 +2234,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="21">
-        <f>H6-$H$19</f>
+        <f t="shared" si="0"/>
         <v>181.66666666666671</v>
       </c>
       <c r="I7" s="21">
@@ -2260,7 +2260,7 @@
         <v>6</v>
       </c>
       <c r="H8" s="21">
-        <f>H7-$H$19</f>
+        <f t="shared" si="0"/>
         <v>163.50000000000006</v>
       </c>
       <c r="I8" s="21">
@@ -2286,7 +2286,7 @@
         <v>7</v>
       </c>
       <c r="H9" s="21">
-        <f>H8-$H$19</f>
+        <f t="shared" si="0"/>
         <v>145.3333333333334</v>
       </c>
       <c r="I9" s="21">
@@ -2312,7 +2312,7 @@
         <v>8</v>
       </c>
       <c r="H10" s="21">
-        <f>H9-$H$19</f>
+        <f t="shared" si="0"/>
         <v>127.16666666666673</v>
       </c>
       <c r="I10" s="21">
@@ -2338,7 +2338,7 @@
         <v>9</v>
       </c>
       <c r="H11" s="21">
-        <f>H10-$H$19</f>
+        <f t="shared" si="0"/>
         <v>109.00000000000006</v>
       </c>
       <c r="I11" s="21">
@@ -2362,7 +2362,7 @@
         <v>10</v>
       </c>
       <c r="H12" s="21">
-        <f>H11-$H$19</f>
+        <f t="shared" si="0"/>
         <v>90.833333333333385</v>
       </c>
       <c r="I12" s="21">
@@ -2388,7 +2388,7 @@
         <v>11</v>
       </c>
       <c r="H13" s="21">
-        <f>H12-$H$19</f>
+        <f t="shared" si="0"/>
         <v>72.666666666666714</v>
       </c>
       <c r="I13" s="21">
@@ -2412,7 +2412,7 @@
         <v>12</v>
       </c>
       <c r="H14" s="21">
-        <f>H13-$H$19</f>
+        <f t="shared" si="0"/>
         <v>54.500000000000043</v>
       </c>
       <c r="I14" s="21">
@@ -2438,7 +2438,7 @@
         <v>13</v>
       </c>
       <c r="H15" s="21">
-        <f>H14-$H$19</f>
+        <f t="shared" si="0"/>
         <v>36.333333333333371</v>
       </c>
       <c r="I15" s="21">
@@ -2464,7 +2464,7 @@
         <v>14</v>
       </c>
       <c r="H16" s="21">
-        <f>H15-$H$19</f>
+        <f t="shared" si="0"/>
         <v>18.166666666666703</v>
       </c>
       <c r="I16" s="21">
@@ -2486,7 +2486,7 @@
         <v>15</v>
       </c>
       <c r="H17" s="21">
-        <f>H16-$H$19</f>
+        <f t="shared" si="0"/>
         <v>3.5527136788005009E-14</v>
       </c>
       <c r="I17" s="21">
